--- a/biology/Écologie/MELiSSA/MELiSSA.xlsx
+++ b/biology/Écologie/MELiSSA/MELiSSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">MELiSSA (en anglais : Micro-Ecological Life Support System Alternative) est un projet de l'Agence Spatiale Européenne (ESA) ayant pour objectif de développer un système de support de vie régénératif permettant de reproduire les fonctions principales de l'écosystème terrestre (production en eau, oxygène), dans une masse et un volume réduits et avec une sécurité extrême. On parle alors d’écologie fonctionnelle.
 Les missions vers la planète Mars (et toutes les étapes entre la Terre et Mars) sont visées. 
@@ -518,9 +530,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet MELiSSA a été lancé en 1987 après un vol préliminaire à bord du satellite récupérable FSW-0 9 lancé le 5 août 1987 par une fusée chinoise Longue Marche 2C[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet MELiSSA a été lancé en 1987 après un vol préliminaire à bord du satellite récupérable FSW-0 9 lancé le 5 août 1987 par une fusée chinoise Longue Marche 2C.
 </t>
         </is>
       </c>
@@ -549,11 +563,11 @@
           <t>Missions et activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alimenter les astronautes en eau, oxygène, et en nourriture à partir de la transformation des déchets et des contaminants chimiques et microbiologiques, est le défi étudié par l'Agence Spatiale Européenne (ESA) et ses partenaires.
-Pilot Plant
-Il s’agit du site de démonstration de la souche MELiSSA sur terre est situé à l’Université Autonome de Barcelone (UAB). Les différents procédés MELiSSA sont progressivement intégrés et démontrés sur la base de vrais déchets pendant des mois. Le but ultime de ce site pilote est une démonstration de la boucle complète pour une durée de 3 ans. Le degré d'étanchéité  de cette boucle MELiSSA est le même que celui de la Station Spatiale Internationale (ISS).
 </t>
         </is>
       </c>
@@ -579,13 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Missions et activités</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pays membres
-Environ 50 organisations (universités, centres de recherche, industries spatiales et entreprises terrestres) participent au projet. 15 partenaires ont signé un protocole d'accord (Memorandum of Understanding). MELiSSA est internationalement reconnu comme le projet le plus avancé en matière de développement de systèmes de support de vie en boucle fermée. Les signataires du nom de MELiSSA sont présentés ci-dessous.
+          <t>Pilot Plant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit du site de démonstration de la souche MELiSSA sur terre est situé à l’Université Autonome de Barcelone (UAB). Les différents procédés MELiSSA sont progressivement intégrés et démontrés sur la base de vrais déchets pendant des mois. Le but ultime de ce site pilote est une démonstration de la boucle complète pour une durée de 3 ans. Le degré d'étanchéité  de cette boucle MELiSSA est le même que celui de la Station Spatiale Internationale (ISS).
 </t>
         </is>
       </c>
@@ -611,13 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">MELiSSA accueille de nombreux étudiants, majoritairement en Master, Thèse et Post-doc. Régulièrement, la Fondation MELiSSA ouvre des positions de doctorants et post-doctorants rassemblés sous le programme POMP: Pool of mELiSSA PhD. 
-Au fil des ans, l'intérêt du citoyen européen pour l'environnement, la durabilité et l'écosystème terrestre s'est accru et le projet MELiSSA est souvent perçu comme le système ultime d'économie circulaire[4].
+          <t>Pays membres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 50 organisations (universités, centres de recherche, industries spatiales et entreprises terrestres) participent au projet. 15 partenaires ont signé un protocole d'accord (Memorandum of Understanding). MELiSSA est internationalement reconnu comme le projet le plus avancé en matière de développement de systèmes de support de vie en boucle fermée. Les signataires du nom de MELiSSA sont présentés ci-dessous.
 </t>
         </is>
       </c>
@@ -643,10 +667,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MELiSSA accueille de nombreux étudiants, majoritairement en Master, Thèse et Post-doc. Régulièrement, la Fondation MELiSSA ouvre des positions de doctorants et post-doctorants rassemblés sous le programme POMP: Pool of mELiSSA PhD. 
+Au fil des ans, l'intérêt du citoyen européen pour l'environnement, la durabilité et l'écosystème terrestre s'est accru et le projet MELiSSA est souvent perçu comme le système ultime d'économie circulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MELiSSA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MELiSSA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Identité Visuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logo de du projet MELiSSA est disponible sur le site officiel : www.melissafoundation.org
 Nom officiel : MELiSSA (Micro-Ecological Life Support System Alternative)
